--- a/temporal_landing/renda familiar 2021.xlsx
+++ b/temporal_landing/renda familiar 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhengyong Ji\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Zhengyong Ji\Documents\GitHub\MDS-ADSDB-Proj1-JiJonas\temporal_landing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C334425-F38A-487C-82AF-792B59092E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8A0BB5-DC42-41CE-8DB4-0CE7AB3B76AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7310" yWindow="2650" windowWidth="11090" windowHeight="8710" xr2:uid="{211FD04A-B6F7-48AA-80CF-74D83E9D930D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{211FD04A-B6F7-48AA-80CF-74D83E9D930D}"/>
   </bookViews>
   <sheets>
     <sheet name="renda" sheetId="2" r:id="rId1"/>
@@ -426,12 +426,6 @@
     <t>la Marina de Port</t>
   </si>
   <si>
-    <t>la Marina del Prat Vermell - AEI Zona Franca</t>
-  </si>
-  <si>
-    <t>el Poble Sec - AEI Parc Montjuïc</t>
-  </si>
-  <si>
     <t>1.01</t>
   </si>
   <si>
@@ -529,6 +523,12 @@
   </si>
   <si>
     <t>Sant Marti</t>
+  </si>
+  <si>
+    <t>el Poble Sec</t>
+  </si>
+  <si>
+    <t>la Marina del Prat Vermell</t>
   </si>
 </sst>
 </file>
@@ -908,38 +908,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F8ACD9-6F5C-4A4C-A216-AAB4E92A43FD}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2">
         <v>11.178000000000001</v>
@@ -951,21 +951,21 @@
         <v>11.919</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2">
         <v>15.99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E3" s="2">
         <v>18.667999999999999</v>
@@ -976,16 +976,16 @@
     </row>
     <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2">
         <v>14.943</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" s="2">
         <v>15.659000000000001</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2">
         <v>16.77</v>
@@ -1011,35 +1011,35 @@
         <v>19.731000000000002</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2">
         <v>21.445</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2">
         <v>23.509</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2">
         <v>20.986000000000001</v>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2">
         <v>27.492000000000001</v>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2">
         <v>25.946000000000002</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2">
         <v>31.193999999999999</v>
@@ -1096,16 +1096,16 @@
     </row>
     <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2">
         <v>23.731999999999999</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2">
         <v>26.303000000000001</v>
@@ -1116,16 +1116,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2">
         <v>20.960999999999999</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2">
         <v>22.8</v>
@@ -1134,12 +1134,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C12" s="2">
         <v>15.253</v>
@@ -1154,12 +1154,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2">
         <v>13.323</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>132</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>131</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>130</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>128</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>127</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>126</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>125</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>122</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>120</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>117</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>114</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>111</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>108</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="27" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>106</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>103</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>100</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>98</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>97</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>95</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="33" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>93</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>91</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>89</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>88</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>84</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>83</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="40" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>81</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>80</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>79</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>77</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>76</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="45" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>73</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>71</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>68</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>67</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>66</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>64</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>62</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>61</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>56</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>53</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>50</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>48</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="65" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>29</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>27</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="67" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>25</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="68" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>22</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>19</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="70" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>16</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="71" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>13</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="72" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>10</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="73" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>7</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4</v>
